--- a/biology/Zoologie/Abrocoma/Abrocoma.xlsx
+++ b/biology/Zoologie/Abrocoma/Abrocoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rats chinchillas
-Le genre Abrocoma comprend les espèces des petits rongeurs originaires de la cordillère des Andes aussi appelés rats-chinchillas[1].
+Le genre Abrocoma comprend les espèces des petits rongeurs originaires de la cordillère des Andes aussi appelés rats-chinchillas.
 Ce genre a été décrit pour la première fois en 1837 par le zoologiste britannique George Robert Waterhouse (1810-1888).
 </t>
         </is>
@@ -513,18 +525,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012)[2]  et ITIS      (27 sept. 2012)[3] :
-Abrocoma bennettii Waterhouse, 1837 - le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (27 sept. 2012)  et ITIS      (27 sept. 2012) :
+Abrocoma bennettii Waterhouse, 1837 - le Rat-chinchilla du Chili ou Rat-chinchilla de Bennett
 Abrocoma boliviensis Glanz et Anderson, 1990
 Abrocoma budini Thomas, 1920
-Abrocoma cinerea Thomas, 1919 - le Rat-chinchilla cendré[4],[1]
+Abrocoma cinerea Thomas, 1919 - le Rat-chinchilla cendré,
 Abrocoma famatina Thomas, 1920
 Abrocoma shistacea Thomas, 1921
 Abrocoma uspallata Braun &amp; Mares, 2002
 Abrocoma vaccarum Thomas, 1921
-Selon NCBI  (27 sept. 2012)[5] :
+Selon NCBI  (27 sept. 2012) :
 Abrocoma bennettii
 Abrocoma cinerea</t>
         </is>
